--- a/kvision/ksample/mytable/docmind/014_0e3a2.xlsx
+++ b/kvision/ksample/mytable/docmind/014_0e3a2.xlsx
@@ -39,7 +39,7 @@
       <patternFill patternType="darkGray"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -173,11 +173,69 @@
         <color rgb="00FF0000"/>
       </bottom>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="00FF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="00FF0000"/>
+      </right>
+      <top style="thick">
+        <color rgb="00FF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="00FF0000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="00FF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="00FF0000"/>
+      </right>
+      <top style="thick">
+        <color rgb="00FF0000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="00FF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="00000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="00000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="214">
+  <cellXfs count="217">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -814,6 +872,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1197,412 +1262,412 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="211" t="inlineStr">
+      <c r="A1" s="214" t="inlineStr">
         <is>
           <t>P.O， 1534 REV.10/79PURCHASING                 PURCHASE REQUISITION              LT-10-79ISTATIONARY      PLEASE INCLUDE ONLY ONE TYPE OF MATERIAL ON THIS REQUISITION</t>
         </is>
       </c>
-      <c r="B1" s="212" t="n"/>
-      <c r="C1" s="212" t="n"/>
-      <c r="D1" s="212" t="n"/>
-      <c r="E1" s="212" t="n"/>
-      <c r="F1" s="211" t="inlineStr">
+      <c r="B1" s="215" t="n"/>
+      <c r="C1" s="215" t="n"/>
+      <c r="D1" s="215" t="n"/>
+      <c r="E1" s="215" t="n"/>
+      <c r="F1" s="214" t="inlineStr">
         <is>
           <t>DATEApril 19， 1988</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="211" t="inlineStr">
+      <c r="A2" s="214" t="inlineStr">
         <is>
           <t>VENDOR                    FOR PURCHASING DEPARTMENT USE ONLYPiedmont Research Laboratory 2748 Patterson Ave.， Greensboro，l</t>
         </is>
       </c>
-      <c r="B2" s="212" t="n"/>
-      <c r="C2" s="212" t="n"/>
-      <c r="D2" s="212" t="n"/>
-      <c r="E2" s="212" t="n"/>
-      <c r="F2" s="211" t="inlineStr">
+      <c r="B2" s="215" t="n"/>
+      <c r="C2" s="215" t="n"/>
+      <c r="D2" s="215" t="n"/>
+      <c r="E2" s="215" t="n"/>
+      <c r="F2" s="214" t="inlineStr">
         <is>
           <t>ORDER NO.C</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="213" t="inlineStr">
+      <c r="A3" s="216" t="inlineStr">
         <is>
           <t>TERMS27407NET 15    F.O.B.         N/A      VIA      N/A</t>
         </is>
       </c>
-      <c r="B3" s="212" t="n"/>
-      <c r="C3" s="212" t="n"/>
-      <c r="D3" s="212" t="n"/>
-      <c r="E3" s="212" t="n"/>
-      <c r="F3" s="211" t="inlineStr">
+      <c r="B3" s="215" t="n"/>
+      <c r="C3" s="215" t="n"/>
+      <c r="D3" s="215" t="n"/>
+      <c r="E3" s="215" t="n"/>
+      <c r="F3" s="214" t="inlineStr">
         <is>
           <t>Prev. or Recommanded Suppller</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="211" t="inlineStr">
+      <c r="A4" s="214" t="inlineStr">
         <is>
           <t>SHIP TO，(DEPT..BRANCH)Lorillard Research Center           N. A. Thaggard</t>
         </is>
       </c>
-      <c r="B4" s="212" t="n"/>
-      <c r="C4" s="212" t="n"/>
-      <c r="D4" s="212" t="n"/>
-      <c r="E4" s="213" t="inlineStr">
+      <c r="B4" s="215" t="n"/>
+      <c r="C4" s="215" t="n"/>
+      <c r="D4" s="215" t="n"/>
+      <c r="E4" s="216" t="inlineStr">
         <is>
           <t>DATE WANTEDAs required</t>
         </is>
       </c>
-      <c r="F4" s="212" t="n"/>
+      <c r="F4" s="215" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="211" t="inlineStr">
+      <c r="A5" s="214" t="inlineStr">
         <is>
           <t>420English St.， Greensboro， NC 27405</t>
         </is>
       </c>
-      <c r="B5" s="212" t="n"/>
-      <c r="C5" s="212" t="n"/>
-      <c r="D5" s="212" t="n"/>
-      <c r="E5" s="212" t="n"/>
-      <c r="F5" s="212" t="n"/>
+      <c r="B5" s="215" t="n"/>
+      <c r="C5" s="215" t="n"/>
+      <c r="D5" s="215" t="n"/>
+      <c r="E5" s="215" t="n"/>
+      <c r="F5" s="215" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="213" t="inlineStr">
+      <c r="A6" s="216" t="inlineStr">
         <is>
           <t>QUANTITY</t>
         </is>
       </c>
-      <c r="B6" s="213" t="inlineStr">
+      <c r="B6" s="216" t="inlineStr">
         <is>
           <t>CODE</t>
         </is>
       </c>
-      <c r="C6" s="213" t="inlineStr">
+      <c r="C6" s="216" t="inlineStr">
         <is>
           <t>DESCRIPTION</t>
         </is>
       </c>
-      <c r="D6" s="212" t="n"/>
-      <c r="E6" s="212" t="n"/>
-      <c r="F6" s="213" t="inlineStr">
+      <c r="D6" s="215" t="n"/>
+      <c r="E6" s="215" t="n"/>
+      <c r="F6" s="216" t="inlineStr">
         <is>
           <t>UNIT PRICE</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="213" t="n"/>
-      <c r="B7" s="211" t="inlineStr">
+      <c r="A7" s="216" t="n"/>
+      <c r="B7" s="214" t="inlineStr">
         <is>
           <t>This is your</t>
         </is>
       </c>
-      <c r="C7" s="211" t="inlineStr">
+      <c r="C7" s="214" t="inlineStr">
         <is>
           <t>authorization to prepare cigarettesmoke con</t>
         </is>
       </c>
-      <c r="D7" s="212" t="n"/>
-      <c r="E7" s="212" t="n"/>
-      <c r="F7" s="211" t="inlineStr">
+      <c r="D7" s="215" t="n"/>
+      <c r="E7" s="215" t="n"/>
+      <c r="F7" s="214" t="inlineStr">
         <is>
           <t>Hensate</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="213" t="n"/>
-      <c r="B8" s="211" t="inlineStr">
+      <c r="A8" s="216" t="n"/>
+      <c r="B8" s="214" t="inlineStr">
         <is>
           <t>according td</t>
         </is>
       </c>
-      <c r="C8" s="211" t="inlineStr">
+      <c r="C8" s="214" t="inlineStr">
         <is>
           <t>the protocol"Standard Operating Proceduref</t>
         </is>
       </c>
-      <c r="D8" s="212" t="n"/>
-      <c r="E8" s="212" t="n"/>
-      <c r="F8" s="211" t="inlineStr">
+      <c r="D8" s="215" t="n"/>
+      <c r="E8" s="215" t="n"/>
+      <c r="F8" s="214" t="inlineStr">
         <is>
           <t>br the</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="213" t="n"/>
-      <c r="B9" s="211" t="inlineStr">
+      <c r="A9" s="216" t="n"/>
+      <c r="B9" s="214" t="inlineStr">
         <is>
           <t>Preparation</t>
         </is>
       </c>
-      <c r="C9" s="211" t="inlineStr">
+      <c r="C9" s="214" t="inlineStr">
         <is>
           <t>of Smoke Condensate for Mouse Skin Bioassay，</t>
         </is>
       </c>
-      <c r="D9" s="212" t="n"/>
-      <c r="E9" s="212" t="n"/>
-      <c r="F9" s="211" t="inlineStr">
+      <c r="D9" s="215" t="n"/>
+      <c r="E9" s="215" t="n"/>
+      <c r="F9" s="214" t="inlineStr">
         <is>
           <t>for the.</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="213" t="n"/>
-      <c r="B10" s="211" t="inlineStr">
+      <c r="A10" s="216" t="n"/>
+      <c r="B10" s="214" t="inlineStr">
         <is>
           <t>period April</t>
         </is>
       </c>
-      <c r="C10" s="211" t="inlineStr">
+      <c r="C10" s="214" t="inlineStr">
         <is>
           <t>1，1988through December 31，1988.Condensa</t>
         </is>
       </c>
-      <c r="D10" s="212" t="n"/>
-      <c r="E10" s="212" t="n"/>
-      <c r="F10" s="211" t="inlineStr">
+      <c r="D10" s="215" t="n"/>
+      <c r="E10" s="215" t="n"/>
+      <c r="F10" s="214" t="inlineStr">
         <is>
           <t>te will be</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="213" t="n"/>
-      <c r="B11" s="211" t="inlineStr">
+      <c r="A11" s="216" t="n"/>
+      <c r="B11" s="214" t="inlineStr">
         <is>
           <t>prepared acdc</t>
         </is>
       </c>
-      <c r="C11" s="211" t="inlineStr">
+      <c r="C11" s="214" t="inlineStr">
         <is>
           <t>ording to a time schedule provided by Lorilla</t>
         </is>
       </c>
-      <c r="D11" s="212" t="n"/>
-      <c r="E11" s="212" t="n"/>
-      <c r="F11" s="211" t="inlineStr">
+      <c r="D11" s="215" t="n"/>
+      <c r="E11" s="215" t="n"/>
+      <c r="F11" s="214" t="inlineStr">
         <is>
           <t>kd.The</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="213" t="n"/>
-      <c r="B12" s="211" t="inlineStr">
+      <c r="A12" s="216" t="n"/>
+      <c r="B12" s="214" t="inlineStr">
         <is>
           <t>fixed price</t>
         </is>
       </c>
-      <c r="C12" s="211" t="inlineStr">
+      <c r="C12" s="214" t="inlineStr">
         <is>
           <t>for condensate collection will be at a rate o</t>
         </is>
       </c>
-      <c r="D12" s="212" t="n"/>
-      <c r="E12" s="212" t="n"/>
-      <c r="F12" s="213" t="n"/>
+      <c r="D12" s="215" t="n"/>
+      <c r="E12" s="215" t="n"/>
+      <c r="F12" s="216" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="213" t="n"/>
-      <c r="B13" s="211" t="inlineStr">
+      <c r="A13" s="216" t="n"/>
+      <c r="B13" s="214" t="inlineStr">
         <is>
           <t>$1，750/10，00</t>
         </is>
       </c>
-      <c r="C13" s="211" t="inlineStr">
+      <c r="C13" s="214" t="inlineStr">
         <is>
           <t>0 cigarettessmoked.  Piedmont will pay the cost of</t>
         </is>
       </c>
-      <c r="D13" s="212" t="n"/>
-      <c r="E13" s="212" t="n"/>
-      <c r="F13" s="213" t="n"/>
+      <c r="D13" s="215" t="n"/>
+      <c r="E13" s="215" t="n"/>
+      <c r="F13" s="216" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="213" t="n"/>
-      <c r="B14" s="211" t="inlineStr">
+      <c r="A14" s="216" t="n"/>
+      <c r="B14" s="214" t="inlineStr">
         <is>
           <t>consumable s</t>
         </is>
       </c>
-      <c r="C14" s="211" t="inlineStr">
+      <c r="C14" s="214" t="inlineStr">
         <is>
           <t>upplies.This work is to be conducted in accordance</t>
         </is>
       </c>
-      <c r="D14" s="212" t="n"/>
-      <c r="E14" s="212" t="n"/>
-      <c r="F14" s="213" t="n"/>
+      <c r="D14" s="215" t="n"/>
+      <c r="E14" s="215" t="n"/>
+      <c r="F14" s="216" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="213" t="n"/>
-      <c r="B15" s="211" t="inlineStr">
+      <c r="A15" s="216" t="n"/>
+      <c r="B15" s="214" t="inlineStr">
         <is>
           <t>with the Dede</t>
         </is>
       </c>
-      <c r="C15" s="211" t="inlineStr">
+      <c r="C15" s="214" t="inlineStr">
         <is>
           <t>ember 10， 1984 formal agreement between Piedmont Reseach</t>
         </is>
       </c>
-      <c r="D15" s="212" t="n"/>
-      <c r="E15" s="212" t="n"/>
-      <c r="F15" s="213" t="n"/>
+      <c r="D15" s="215" t="n"/>
+      <c r="E15" s="215" t="n"/>
+      <c r="F15" s="216" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="213" t="n"/>
-      <c r="B16" s="211" t="inlineStr">
+      <c r="A16" s="216" t="n"/>
+      <c r="B16" s="214" t="inlineStr">
         <is>
           <t>Laboratories</t>
         </is>
       </c>
-      <c r="C16" s="211" t="inlineStr">
+      <c r="C16" s="214" t="inlineStr">
         <is>
           <t>and Lorillard.1All work is to be coordinatei</t>
         </is>
       </c>
-      <c r="D16" s="212" t="n"/>
-      <c r="E16" s="212" t="n"/>
-      <c r="F16" s="211" t="inlineStr">
+      <c r="D16" s="215" t="n"/>
+      <c r="E16" s="215" t="n"/>
+      <c r="F16" s="214" t="inlineStr">
         <is>
           <t>with our</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="213" t="n"/>
-      <c r="B17" s="211" t="inlineStr">
+      <c r="A17" s="216" t="n"/>
+      <c r="B17" s="214" t="inlineStr">
         <is>
           <t>Mr. Neil Thaggard (919)</t>
         </is>
       </c>
-      <c r="C17" s="211" t="inlineStr">
+      <c r="C17" s="214" t="inlineStr">
         <is>
           <t>Mr. Neil Thaggard (919))373-6628.</t>
         </is>
       </c>
-      <c r="D17" s="212" t="n"/>
-      <c r="E17" s="212" t="n"/>
-      <c r="F17" s="213" t="n"/>
+      <c r="D17" s="215" t="n"/>
+      <c r="E17" s="215" t="n"/>
+      <c r="F17" s="216" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="213" t="n"/>
-      <c r="B18" s="213" t="n"/>
-      <c r="C18" s="213" t="n"/>
-      <c r="D18" s="213" t="n"/>
-      <c r="E18" s="213" t="n"/>
-      <c r="F18" s="213" t="n"/>
+      <c r="A18" s="216" t="n"/>
+      <c r="B18" s="216" t="n"/>
+      <c r="C18" s="216" t="n"/>
+      <c r="D18" s="216" t="n"/>
+      <c r="E18" s="216" t="n"/>
+      <c r="F18" s="216" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="213" t="n"/>
-      <c r="B19" s="213" t="n"/>
-      <c r="C19" s="213" t="n"/>
-      <c r="D19" s="213" t="n"/>
-      <c r="E19" s="213" t="n"/>
-      <c r="F19" s="213" t="n"/>
+      <c r="A19" s="216" t="n"/>
+      <c r="B19" s="216" t="n"/>
+      <c r="C19" s="216" t="n"/>
+      <c r="D19" s="216" t="n"/>
+      <c r="E19" s="216" t="n"/>
+      <c r="F19" s="216" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="213" t="n"/>
-      <c r="B20" s="213" t="n"/>
-      <c r="C20" s="213" t="n"/>
-      <c r="D20" s="213" t="n"/>
-      <c r="E20" s="213" t="n"/>
-      <c r="F20" s="213" t="n"/>
+      <c r="A20" s="216" t="n"/>
+      <c r="B20" s="216" t="n"/>
+      <c r="C20" s="216" t="n"/>
+      <c r="D20" s="216" t="n"/>
+      <c r="E20" s="216" t="n"/>
+      <c r="F20" s="216" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="213" t="n"/>
-      <c r="B21" s="213" t="n"/>
-      <c r="C21" s="213" t="n"/>
-      <c r="D21" s="213" t="n"/>
-      <c r="E21" s="213" t="n"/>
-      <c r="F21" s="213" t="n"/>
+      <c r="A21" s="216" t="n"/>
+      <c r="B21" s="216" t="n"/>
+      <c r="C21" s="216" t="n"/>
+      <c r="D21" s="216" t="n"/>
+      <c r="E21" s="216" t="n"/>
+      <c r="F21" s="216" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="213" t="n"/>
-      <c r="B22" s="213" t="n"/>
-      <c r="C22" s="213" t="n"/>
-      <c r="D22" s="213" t="n"/>
-      <c r="E22" s="213" t="n"/>
-      <c r="F22" s="213" t="n"/>
+      <c r="A22" s="216" t="n"/>
+      <c r="B22" s="216" t="n"/>
+      <c r="C22" s="216" t="n"/>
+      <c r="D22" s="216" t="n"/>
+      <c r="E22" s="216" t="n"/>
+      <c r="F22" s="216" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="213" t="inlineStr">
+      <c r="A23" s="216" t="inlineStr">
         <is>
           <t>FOLLOW UP DATE</t>
         </is>
       </c>
-      <c r="B23" s="212" t="n"/>
-      <c r="C23" s="213" t="inlineStr">
+      <c r="B23" s="215" t="n"/>
+      <c r="C23" s="216" t="inlineStr">
         <is>
           <t>REQUISITION NO.</t>
         </is>
       </c>
-      <c r="D23" s="212" t="n"/>
-      <c r="E23" s="213" t="inlineStr">
+      <c r="D23" s="215" t="n"/>
+      <c r="E23" s="216" t="inlineStr">
         <is>
           <t>ISSUED BY</t>
         </is>
       </c>
-      <c r="F23" s="212" t="n"/>
+      <c r="F23" s="215" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="213" t="n"/>
-      <c r="B24" s="213" t="n"/>
-      <c r="C24" s="213" t="n"/>
-      <c r="D24" s="213" t="n"/>
-      <c r="E24" s="213" t="n"/>
-      <c r="F24" s="213" t="n"/>
+      <c r="A24" s="216" t="n"/>
+      <c r="B24" s="216" t="n"/>
+      <c r="C24" s="216" t="n"/>
+      <c r="D24" s="216" t="n"/>
+      <c r="E24" s="216" t="n"/>
+      <c r="F24" s="216" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="211" t="inlineStr">
+      <c r="A25" s="214" t="inlineStr">
         <is>
           <t>BUDGET NO.</t>
         </is>
       </c>
-      <c r="B25" s="212" t="n"/>
-      <c r="C25" s="213" t="inlineStr">
+      <c r="B25" s="215" t="n"/>
+      <c r="C25" s="216" t="inlineStr">
         <is>
           <t>ACCT.NO.</t>
         </is>
       </c>
-      <c r="D25" s="213" t="inlineStr">
+      <c r="D25" s="216" t="inlineStr">
         <is>
           <t>DEPT. NO.</t>
         </is>
       </c>
-      <c r="E25" s="213" t="inlineStr">
+      <c r="E25" s="216" t="inlineStr">
         <is>
           <t>APPROVED BY</t>
         </is>
       </c>
-      <c r="F25" s="212" t="n"/>
+      <c r="F25" s="215" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="213" t="n"/>
-      <c r="B26" s="213" t="n"/>
-      <c r="C26" s="213" t="inlineStr">
+      <c r="A26" s="216" t="n"/>
+      <c r="B26" s="216" t="n"/>
+      <c r="C26" s="216" t="inlineStr">
         <is>
           <t>4111</t>
         </is>
       </c>
-      <c r="D26" s="213" t="inlineStr">
+      <c r="D26" s="216" t="inlineStr">
         <is>
           <t>8700</t>
         </is>
       </c>
-      <c r="E26" s="213" t="n"/>
-      <c r="F26" s="213" t="n"/>
+      <c r="E26" s="216" t="n"/>
+      <c r="F26" s="216" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="23">

--- a/kvision/ksample/mytable/docmind/014_0e3a2.xlsx
+++ b/kvision/ksample/mytable/docmind/014_0e3a2.xlsx
@@ -39,7 +39,7 @@
       <patternFill patternType="darkGray"/>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -231,11 +231,69 @@
         <color rgb="00000000"/>
       </bottom>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="00000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="00000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="00000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="00000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00101010"/>
+      </left>
+      <right style="thin">
+        <color rgb="00101010"/>
+      </right>
+      <top style="thin">
+        <color rgb="00101010"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00101010"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="217">
+  <cellXfs count="220">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -879,6 +937,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1262,412 +1327,412 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="214" t="inlineStr">
+      <c r="A1" s="217" t="inlineStr">
         <is>
           <t>P.O， 1534 REV.10/79PURCHASING                 PURCHASE REQUISITION              LT-10-79ISTATIONARY      PLEASE INCLUDE ONLY ONE TYPE OF MATERIAL ON THIS REQUISITION</t>
         </is>
       </c>
-      <c r="B1" s="215" t="n"/>
-      <c r="C1" s="215" t="n"/>
-      <c r="D1" s="215" t="n"/>
-      <c r="E1" s="215" t="n"/>
-      <c r="F1" s="214" t="inlineStr">
+      <c r="B1" s="218" t="n"/>
+      <c r="C1" s="218" t="n"/>
+      <c r="D1" s="218" t="n"/>
+      <c r="E1" s="218" t="n"/>
+      <c r="F1" s="217" t="inlineStr">
         <is>
           <t>DATEApril 19， 1988</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="214" t="inlineStr">
+      <c r="A2" s="217" t="inlineStr">
         <is>
           <t>VENDOR                    FOR PURCHASING DEPARTMENT USE ONLYPiedmont Research Laboratory 2748 Patterson Ave.， Greensboro，l</t>
         </is>
       </c>
-      <c r="B2" s="215" t="n"/>
-      <c r="C2" s="215" t="n"/>
-      <c r="D2" s="215" t="n"/>
-      <c r="E2" s="215" t="n"/>
-      <c r="F2" s="214" t="inlineStr">
+      <c r="B2" s="218" t="n"/>
+      <c r="C2" s="218" t="n"/>
+      <c r="D2" s="218" t="n"/>
+      <c r="E2" s="218" t="n"/>
+      <c r="F2" s="217" t="inlineStr">
         <is>
           <t>ORDER NO.C</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="216" t="inlineStr">
+      <c r="A3" s="219" t="inlineStr">
         <is>
           <t>TERMS27407NET 15    F.O.B.         N/A      VIA      N/A</t>
         </is>
       </c>
-      <c r="B3" s="215" t="n"/>
-      <c r="C3" s="215" t="n"/>
-      <c r="D3" s="215" t="n"/>
-      <c r="E3" s="215" t="n"/>
-      <c r="F3" s="214" t="inlineStr">
+      <c r="B3" s="218" t="n"/>
+      <c r="C3" s="218" t="n"/>
+      <c r="D3" s="218" t="n"/>
+      <c r="E3" s="218" t="n"/>
+      <c r="F3" s="217" t="inlineStr">
         <is>
           <t>Prev. or Recommanded Suppller</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="214" t="inlineStr">
+      <c r="A4" s="217" t="inlineStr">
         <is>
           <t>SHIP TO，(DEPT..BRANCH)Lorillard Research Center           N. A. Thaggard</t>
         </is>
       </c>
-      <c r="B4" s="215" t="n"/>
-      <c r="C4" s="215" t="n"/>
-      <c r="D4" s="215" t="n"/>
-      <c r="E4" s="216" t="inlineStr">
+      <c r="B4" s="218" t="n"/>
+      <c r="C4" s="218" t="n"/>
+      <c r="D4" s="218" t="n"/>
+      <c r="E4" s="219" t="inlineStr">
         <is>
           <t>DATE WANTEDAs required</t>
         </is>
       </c>
-      <c r="F4" s="215" t="n"/>
+      <c r="F4" s="218" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="214" t="inlineStr">
+      <c r="A5" s="217" t="inlineStr">
         <is>
           <t>420English St.， Greensboro， NC 27405</t>
         </is>
       </c>
-      <c r="B5" s="215" t="n"/>
-      <c r="C5" s="215" t="n"/>
-      <c r="D5" s="215" t="n"/>
-      <c r="E5" s="215" t="n"/>
-      <c r="F5" s="215" t="n"/>
+      <c r="B5" s="218" t="n"/>
+      <c r="C5" s="218" t="n"/>
+      <c r="D5" s="218" t="n"/>
+      <c r="E5" s="218" t="n"/>
+      <c r="F5" s="218" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="216" t="inlineStr">
+      <c r="A6" s="219" t="inlineStr">
         <is>
           <t>QUANTITY</t>
         </is>
       </c>
-      <c r="B6" s="216" t="inlineStr">
+      <c r="B6" s="219" t="inlineStr">
         <is>
           <t>CODE</t>
         </is>
       </c>
-      <c r="C6" s="216" t="inlineStr">
+      <c r="C6" s="219" t="inlineStr">
         <is>
           <t>DESCRIPTION</t>
         </is>
       </c>
-      <c r="D6" s="215" t="n"/>
-      <c r="E6" s="215" t="n"/>
-      <c r="F6" s="216" t="inlineStr">
+      <c r="D6" s="218" t="n"/>
+      <c r="E6" s="218" t="n"/>
+      <c r="F6" s="219" t="inlineStr">
         <is>
           <t>UNIT PRICE</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="216" t="n"/>
-      <c r="B7" s="214" t="inlineStr">
+      <c r="A7" s="219" t="n"/>
+      <c r="B7" s="217" t="inlineStr">
         <is>
           <t>This is your</t>
         </is>
       </c>
-      <c r="C7" s="214" t="inlineStr">
+      <c r="C7" s="217" t="inlineStr">
         <is>
           <t>authorization to prepare cigarettesmoke con</t>
         </is>
       </c>
-      <c r="D7" s="215" t="n"/>
-      <c r="E7" s="215" t="n"/>
-      <c r="F7" s="214" t="inlineStr">
+      <c r="D7" s="218" t="n"/>
+      <c r="E7" s="218" t="n"/>
+      <c r="F7" s="217" t="inlineStr">
         <is>
           <t>Hensate</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="216" t="n"/>
-      <c r="B8" s="214" t="inlineStr">
+      <c r="A8" s="219" t="n"/>
+      <c r="B8" s="217" t="inlineStr">
         <is>
           <t>according td</t>
         </is>
       </c>
-      <c r="C8" s="214" t="inlineStr">
+      <c r="C8" s="217" t="inlineStr">
         <is>
           <t>the protocol"Standard Operating Proceduref</t>
         </is>
       </c>
-      <c r="D8" s="215" t="n"/>
-      <c r="E8" s="215" t="n"/>
-      <c r="F8" s="214" t="inlineStr">
+      <c r="D8" s="218" t="n"/>
+      <c r="E8" s="218" t="n"/>
+      <c r="F8" s="217" t="inlineStr">
         <is>
           <t>br the</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="216" t="n"/>
-      <c r="B9" s="214" t="inlineStr">
+      <c r="A9" s="219" t="n"/>
+      <c r="B9" s="217" t="inlineStr">
         <is>
           <t>Preparation</t>
         </is>
       </c>
-      <c r="C9" s="214" t="inlineStr">
+      <c r="C9" s="217" t="inlineStr">
         <is>
           <t>of Smoke Condensate for Mouse Skin Bioassay，</t>
         </is>
       </c>
-      <c r="D9" s="215" t="n"/>
-      <c r="E9" s="215" t="n"/>
-      <c r="F9" s="214" t="inlineStr">
+      <c r="D9" s="218" t="n"/>
+      <c r="E9" s="218" t="n"/>
+      <c r="F9" s="217" t="inlineStr">
         <is>
           <t>for the.</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="216" t="n"/>
-      <c r="B10" s="214" t="inlineStr">
+      <c r="A10" s="219" t="n"/>
+      <c r="B10" s="217" t="inlineStr">
         <is>
           <t>period April</t>
         </is>
       </c>
-      <c r="C10" s="214" t="inlineStr">
+      <c r="C10" s="217" t="inlineStr">
         <is>
           <t>1，1988through December 31，1988.Condensa</t>
         </is>
       </c>
-      <c r="D10" s="215" t="n"/>
-      <c r="E10" s="215" t="n"/>
-      <c r="F10" s="214" t="inlineStr">
+      <c r="D10" s="218" t="n"/>
+      <c r="E10" s="218" t="n"/>
+      <c r="F10" s="217" t="inlineStr">
         <is>
           <t>te will be</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="216" t="n"/>
-      <c r="B11" s="214" t="inlineStr">
+      <c r="A11" s="219" t="n"/>
+      <c r="B11" s="217" t="inlineStr">
         <is>
           <t>prepared acdc</t>
         </is>
       </c>
-      <c r="C11" s="214" t="inlineStr">
+      <c r="C11" s="217" t="inlineStr">
         <is>
           <t>ording to a time schedule provided by Lorilla</t>
         </is>
       </c>
-      <c r="D11" s="215" t="n"/>
-      <c r="E11" s="215" t="n"/>
-      <c r="F11" s="214" t="inlineStr">
+      <c r="D11" s="218" t="n"/>
+      <c r="E11" s="218" t="n"/>
+      <c r="F11" s="217" t="inlineStr">
         <is>
           <t>kd.The</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="216" t="n"/>
-      <c r="B12" s="214" t="inlineStr">
+      <c r="A12" s="219" t="n"/>
+      <c r="B12" s="217" t="inlineStr">
         <is>
           <t>fixed price</t>
         </is>
       </c>
-      <c r="C12" s="214" t="inlineStr">
+      <c r="C12" s="217" t="inlineStr">
         <is>
           <t>for condensate collection will be at a rate o</t>
         </is>
       </c>
-      <c r="D12" s="215" t="n"/>
-      <c r="E12" s="215" t="n"/>
-      <c r="F12" s="216" t="n"/>
+      <c r="D12" s="218" t="n"/>
+      <c r="E12" s="218" t="n"/>
+      <c r="F12" s="219" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="216" t="n"/>
-      <c r="B13" s="214" t="inlineStr">
+      <c r="A13" s="219" t="n"/>
+      <c r="B13" s="217" t="inlineStr">
         <is>
           <t>$1，750/10，00</t>
         </is>
       </c>
-      <c r="C13" s="214" t="inlineStr">
+      <c r="C13" s="217" t="inlineStr">
         <is>
           <t>0 cigarettessmoked.  Piedmont will pay the cost of</t>
         </is>
       </c>
-      <c r="D13" s="215" t="n"/>
-      <c r="E13" s="215" t="n"/>
-      <c r="F13" s="216" t="n"/>
+      <c r="D13" s="218" t="n"/>
+      <c r="E13" s="218" t="n"/>
+      <c r="F13" s="219" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="216" t="n"/>
-      <c r="B14" s="214" t="inlineStr">
+      <c r="A14" s="219" t="n"/>
+      <c r="B14" s="217" t="inlineStr">
         <is>
           <t>consumable s</t>
         </is>
       </c>
-      <c r="C14" s="214" t="inlineStr">
+      <c r="C14" s="217" t="inlineStr">
         <is>
           <t>upplies.This work is to be conducted in accordance</t>
         </is>
       </c>
-      <c r="D14" s="215" t="n"/>
-      <c r="E14" s="215" t="n"/>
-      <c r="F14" s="216" t="n"/>
+      <c r="D14" s="218" t="n"/>
+      <c r="E14" s="218" t="n"/>
+      <c r="F14" s="219" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="216" t="n"/>
-      <c r="B15" s="214" t="inlineStr">
+      <c r="A15" s="219" t="n"/>
+      <c r="B15" s="217" t="inlineStr">
         <is>
           <t>with the Dede</t>
         </is>
       </c>
-      <c r="C15" s="214" t="inlineStr">
+      <c r="C15" s="217" t="inlineStr">
         <is>
           <t>ember 10， 1984 formal agreement between Piedmont Reseach</t>
         </is>
       </c>
-      <c r="D15" s="215" t="n"/>
-      <c r="E15" s="215" t="n"/>
-      <c r="F15" s="216" t="n"/>
+      <c r="D15" s="218" t="n"/>
+      <c r="E15" s="218" t="n"/>
+      <c r="F15" s="219" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="216" t="n"/>
-      <c r="B16" s="214" t="inlineStr">
+      <c r="A16" s="219" t="n"/>
+      <c r="B16" s="217" t="inlineStr">
         <is>
           <t>Laboratories</t>
         </is>
       </c>
-      <c r="C16" s="214" t="inlineStr">
+      <c r="C16" s="217" t="inlineStr">
         <is>
           <t>and Lorillard.1All work is to be coordinatei</t>
         </is>
       </c>
-      <c r="D16" s="215" t="n"/>
-      <c r="E16" s="215" t="n"/>
-      <c r="F16" s="214" t="inlineStr">
+      <c r="D16" s="218" t="n"/>
+      <c r="E16" s="218" t="n"/>
+      <c r="F16" s="217" t="inlineStr">
         <is>
           <t>with our</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="216" t="n"/>
-      <c r="B17" s="214" t="inlineStr">
+      <c r="A17" s="219" t="n"/>
+      <c r="B17" s="217" t="inlineStr">
         <is>
           <t>Mr. Neil Thaggard (919)</t>
         </is>
       </c>
-      <c r="C17" s="214" t="inlineStr">
+      <c r="C17" s="217" t="inlineStr">
         <is>
           <t>Mr. Neil Thaggard (919))373-6628.</t>
         </is>
       </c>
-      <c r="D17" s="215" t="n"/>
-      <c r="E17" s="215" t="n"/>
-      <c r="F17" s="216" t="n"/>
+      <c r="D17" s="218" t="n"/>
+      <c r="E17" s="218" t="n"/>
+      <c r="F17" s="219" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="216" t="n"/>
-      <c r="B18" s="216" t="n"/>
-      <c r="C18" s="216" t="n"/>
-      <c r="D18" s="216" t="n"/>
-      <c r="E18" s="216" t="n"/>
-      <c r="F18" s="216" t="n"/>
+      <c r="A18" s="219" t="n"/>
+      <c r="B18" s="219" t="n"/>
+      <c r="C18" s="219" t="n"/>
+      <c r="D18" s="219" t="n"/>
+      <c r="E18" s="219" t="n"/>
+      <c r="F18" s="219" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="216" t="n"/>
-      <c r="B19" s="216" t="n"/>
-      <c r="C19" s="216" t="n"/>
-      <c r="D19" s="216" t="n"/>
-      <c r="E19" s="216" t="n"/>
-      <c r="F19" s="216" t="n"/>
+      <c r="A19" s="219" t="n"/>
+      <c r="B19" s="219" t="n"/>
+      <c r="C19" s="219" t="n"/>
+      <c r="D19" s="219" t="n"/>
+      <c r="E19" s="219" t="n"/>
+      <c r="F19" s="219" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="216" t="n"/>
-      <c r="B20" s="216" t="n"/>
-      <c r="C20" s="216" t="n"/>
-      <c r="D20" s="216" t="n"/>
-      <c r="E20" s="216" t="n"/>
-      <c r="F20" s="216" t="n"/>
+      <c r="A20" s="219" t="n"/>
+      <c r="B20" s="219" t="n"/>
+      <c r="C20" s="219" t="n"/>
+      <c r="D20" s="219" t="n"/>
+      <c r="E20" s="219" t="n"/>
+      <c r="F20" s="219" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="216" t="n"/>
-      <c r="B21" s="216" t="n"/>
-      <c r="C21" s="216" t="n"/>
-      <c r="D21" s="216" t="n"/>
-      <c r="E21" s="216" t="n"/>
-      <c r="F21" s="216" t="n"/>
+      <c r="A21" s="219" t="n"/>
+      <c r="B21" s="219" t="n"/>
+      <c r="C21" s="219" t="n"/>
+      <c r="D21" s="219" t="n"/>
+      <c r="E21" s="219" t="n"/>
+      <c r="F21" s="219" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="216" t="n"/>
-      <c r="B22" s="216" t="n"/>
-      <c r="C22" s="216" t="n"/>
-      <c r="D22" s="216" t="n"/>
-      <c r="E22" s="216" t="n"/>
-      <c r="F22" s="216" t="n"/>
+      <c r="A22" s="219" t="n"/>
+      <c r="B22" s="219" t="n"/>
+      <c r="C22" s="219" t="n"/>
+      <c r="D22" s="219" t="n"/>
+      <c r="E22" s="219" t="n"/>
+      <c r="F22" s="219" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="216" t="inlineStr">
+      <c r="A23" s="219" t="inlineStr">
         <is>
           <t>FOLLOW UP DATE</t>
         </is>
       </c>
-      <c r="B23" s="215" t="n"/>
-      <c r="C23" s="216" t="inlineStr">
+      <c r="B23" s="218" t="n"/>
+      <c r="C23" s="219" t="inlineStr">
         <is>
           <t>REQUISITION NO.</t>
         </is>
       </c>
-      <c r="D23" s="215" t="n"/>
-      <c r="E23" s="216" t="inlineStr">
+      <c r="D23" s="218" t="n"/>
+      <c r="E23" s="219" t="inlineStr">
         <is>
           <t>ISSUED BY</t>
         </is>
       </c>
-      <c r="F23" s="215" t="n"/>
+      <c r="F23" s="218" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="216" t="n"/>
-      <c r="B24" s="216" t="n"/>
-      <c r="C24" s="216" t="n"/>
-      <c r="D24" s="216" t="n"/>
-      <c r="E24" s="216" t="n"/>
-      <c r="F24" s="216" t="n"/>
+      <c r="A24" s="219" t="n"/>
+      <c r="B24" s="219" t="n"/>
+      <c r="C24" s="219" t="n"/>
+      <c r="D24" s="219" t="n"/>
+      <c r="E24" s="219" t="n"/>
+      <c r="F24" s="219" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="214" t="inlineStr">
+      <c r="A25" s="217" t="inlineStr">
         <is>
           <t>BUDGET NO.</t>
         </is>
       </c>
-      <c r="B25" s="215" t="n"/>
-      <c r="C25" s="216" t="inlineStr">
+      <c r="B25" s="218" t="n"/>
+      <c r="C25" s="219" t="inlineStr">
         <is>
           <t>ACCT.NO.</t>
         </is>
       </c>
-      <c r="D25" s="216" t="inlineStr">
+      <c r="D25" s="219" t="inlineStr">
         <is>
           <t>DEPT. NO.</t>
         </is>
       </c>
-      <c r="E25" s="216" t="inlineStr">
+      <c r="E25" s="219" t="inlineStr">
         <is>
           <t>APPROVED BY</t>
         </is>
       </c>
-      <c r="F25" s="215" t="n"/>
+      <c r="F25" s="218" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="216" t="n"/>
-      <c r="B26" s="216" t="n"/>
-      <c r="C26" s="216" t="inlineStr">
+      <c r="A26" s="219" t="n"/>
+      <c r="B26" s="219" t="n"/>
+      <c r="C26" s="219" t="inlineStr">
         <is>
           <t>4111</t>
         </is>
       </c>
-      <c r="D26" s="216" t="inlineStr">
+      <c r="D26" s="219" t="inlineStr">
         <is>
           <t>8700</t>
         </is>
       </c>
-      <c r="E26" s="216" t="n"/>
-      <c r="F26" s="216" t="n"/>
+      <c r="E26" s="219" t="n"/>
+      <c r="F26" s="219" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="23">
